--- a/data/trans_dic/CoTrAQ_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R2-Edad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1121693169296929</v>
+        <v>0.1088904860409205</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2455412615661943</v>
+        <v>0.2330863255398045</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05960832688011243</v>
+        <v>0.06011936509398939</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2041906745037613</v>
+        <v>0.2030348125090963</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1012623253302108</v>
+        <v>0.1033216919540827</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.244320860694935</v>
+        <v>0.2410553353276098</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3043132005978433</v>
+        <v>0.2998860005970477</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4608012959397928</v>
+        <v>0.4541396050613566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2070400140513333</v>
+        <v>0.197717562495139</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3910875068635296</v>
+        <v>0.3793459036725405</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2162687757058116</v>
+        <v>0.2220166518977586</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.386959810153875</v>
+        <v>0.3855475115699485</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1264433230388551</v>
+        <v>0.1263863990735988</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2338443635623779</v>
+        <v>0.2348920306494281</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1395673267070767</v>
+        <v>0.1358958791126924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2545525429421698</v>
+        <v>0.2504171890258321</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1425916706406311</v>
+        <v>0.1422529195329306</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2561377781002258</v>
+        <v>0.2519686729250109</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2041838225705371</v>
+        <v>0.202128653873796</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3337153029057916</v>
+        <v>0.3363978522216857</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2433490438916074</v>
+        <v>0.2387667359482472</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3557759960452572</v>
+        <v>0.3603617623498217</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2037543179541391</v>
+        <v>0.2059727895330177</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3290424772182179</v>
+        <v>0.3245298443042739</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1045706115494104</v>
+        <v>0.1037330113837271</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1697030378016605</v>
+        <v>0.1763389477288188</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1251262531344067</v>
+        <v>0.1262171724961296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2121520863009699</v>
+        <v>0.2078563969747203</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1231568020235179</v>
+        <v>0.1224537204295232</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2035483955224869</v>
+        <v>0.2038655281217913</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1739114852087859</v>
+        <v>0.1751546281042346</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2489296835621769</v>
+        <v>0.251663572226314</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2219714777255093</v>
+        <v>0.2238857432605918</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3069170226983233</v>
+        <v>0.3103711715618081</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1806650931332429</v>
+        <v>0.1784578339172956</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.261839423064276</v>
+        <v>0.2608124816575965</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06590192448251736</v>
+        <v>0.06744380151664324</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.185203118852053</v>
+        <v>0.1861437251136022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1297398926294346</v>
+        <v>0.1417252436933764</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2437476199744472</v>
+        <v>0.2427544453648243</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1014297989605197</v>
+        <v>0.1011171190968009</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2233641072356345</v>
+        <v>0.2280283746691568</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1350597071314672</v>
+        <v>0.1320988657931803</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2769795563206447</v>
+        <v>0.2790396882536573</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2547060214302723</v>
+        <v>0.2552738735130145</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3645400413192262</v>
+        <v>0.3724200350231708</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.163991774639076</v>
+        <v>0.1630990689774891</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2949539547599757</v>
+        <v>0.3009829757468157</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06509862283981917</v>
+        <v>0.0642114182574397</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1711899561698483</v>
+        <v>0.1683633786922706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0658553686072661</v>
+        <v>0.06607028441370645</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2252521004313539</v>
+        <v>0.212764946514489</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07583742153574075</v>
+        <v>0.07818199572502381</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2086450624111348</v>
+        <v>0.2115591081246287</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1692927070396561</v>
+        <v>0.1642038155946765</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3237447003299128</v>
+        <v>0.3068394592080589</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2608362524561258</v>
+        <v>0.2442708709080349</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4082814630953338</v>
+        <v>0.398993151428342</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1666724738240336</v>
+        <v>0.1659229779057808</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3215282882748052</v>
+        <v>0.3276475592112496</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2433321168799105</v>
+        <v>0.2453254466744883</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2794167233181518</v>
+        <v>0.2816053054998268</v>
       </c>
     </row>
     <row r="22">
@@ -1274,22 +1274,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8759</v>
+        <v>8503</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19425</v>
+        <v>18439</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4944</v>
+        <v>4986</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18756</v>
+        <v>18650</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16305</v>
+        <v>16637</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>41770</v>
+        <v>41212</v>
       </c>
     </row>
     <row r="7">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23762</v>
+        <v>23416</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36454</v>
+        <v>35927</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17171</v>
+        <v>16398</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35923</v>
+        <v>34845</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>34824</v>
+        <v>35749</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>66156</v>
+        <v>65915</v>
       </c>
     </row>
     <row r="8">
@@ -1382,22 +1382,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>47307</v>
+        <v>47285</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>80486</v>
+        <v>80846</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>36888</v>
+        <v>35918</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>69675</v>
+        <v>68543</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>91036</v>
+        <v>90820</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>158268</v>
+        <v>155692</v>
       </c>
     </row>
     <row r="11">
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>76392</v>
+        <v>75623</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>114860</v>
+        <v>115783</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64318</v>
+        <v>63107</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>97382</v>
+        <v>98637</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>130084</v>
+        <v>131501</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>203316</v>
+        <v>200528</v>
       </c>
     </row>
     <row r="12">
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>42890</v>
+        <v>42547</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>77993</v>
+        <v>81043</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>34450</v>
+        <v>34750</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>67340</v>
+        <v>65977</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>84421</v>
+        <v>83939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>158157</v>
+        <v>158404</v>
       </c>
     </row>
     <row r="15">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>71331</v>
+        <v>71841</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>114405</v>
+        <v>115662</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61113</v>
+        <v>61640</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>97420</v>
+        <v>98516</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>123842</v>
+        <v>122329</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>203449</v>
+        <v>202652</v>
       </c>
     </row>
     <row r="16">
@@ -1598,22 +1598,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23671</v>
+        <v>24225</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>68104</v>
+        <v>68450</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>27879</v>
+        <v>30455</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>59259</v>
+        <v>59018</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>58228</v>
+        <v>58049</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>136441</v>
+        <v>139290</v>
       </c>
     </row>
     <row r="19">
@@ -1624,22 +1624,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48512</v>
+        <v>47448</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>101853</v>
+        <v>102611</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>54733</v>
+        <v>54855</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>88626</v>
+        <v>90542</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>94144</v>
+        <v>93631</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>180171</v>
+        <v>183854</v>
       </c>
     </row>
     <row r="20">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10046</v>
+        <v>9909</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28371</v>
+        <v>27902</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4234</v>
+        <v>4248</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23849</v>
+        <v>22527</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>16579</v>
+        <v>17091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>56669</v>
+        <v>57461</v>
       </c>
     </row>
     <row r="23">
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26124</v>
+        <v>25339</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>53653</v>
+        <v>50851</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16770</v>
+        <v>15705</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>43228</v>
+        <v>42245</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>36436</v>
+        <v>36272</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>87329</v>
+        <v>88991</v>
       </c>
     </row>
     <row r="24">
@@ -1814,22 +1814,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>595754</v>
+        <v>600635</v>
       </c>
     </row>
     <row r="27">
@@ -1840,22 +1840,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>684101</v>
+        <v>689459</v>
       </c>
     </row>
     <row r="28">
